--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D61FB3-03ED-4A64-8B79-705D6F6ED936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80E782-C461-4836-96B0-2531243EF9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Zeel Prajapati</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +430,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +443,14 @@
       <c r="D1" s="1">
         <v>45382</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1">
+        <v>45387</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -448,8 +463,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,8 +483,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -476,8 +503,14 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -490,8 +523,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -504,13 +543,19 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -518,8 +563,14 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -532,8 +583,14 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -544,6 +601,32 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80E782-C461-4836-96B0-2531243EF9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286691A-1F21-4A49-995B-4347A791670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Dubai</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +433,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +452,20 @@
       <c r="F1" s="1">
         <v>45388</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1">
+        <v>45394</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45395</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -469,8 +484,20 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -489,8 +516,20 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -509,8 +548,20 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -529,8 +580,20 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -549,8 +612,20 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -569,8 +644,20 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -589,8 +676,20 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -609,8 +708,20 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -627,6 +738,18 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286691A-1F21-4A49-995B-4347A791670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F0178-06AA-464A-A114-8B277D07C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +433,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +464,20 @@
       <c r="J1" s="1">
         <v>45402</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1">
+        <v>45408</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45409</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45415</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -496,8 +508,17 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,8 +549,17 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -560,8 +590,17 @@
       <c r="J4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -592,8 +631,17 @@
       <c r="J5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -624,8 +672,14 @@
       <c r="J6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -656,8 +710,14 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -688,8 +748,14 @@
       <c r="J8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -720,8 +786,14 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -750,6 +822,12 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F0178-06AA-464A-A114-8B277D07C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE587C2-6FEE-4722-B287-146C1F0EFD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +433,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +476,14 @@
       <c r="N1" s="1">
         <v>45420</v>
       </c>
+      <c r="O1" s="1">
+        <v>45422</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45423</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -517,8 +523,14 @@
       <c r="N2" t="s">
         <v>9</v>
       </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,8 +570,14 @@
       <c r="N3" t="s">
         <v>9</v>
       </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -599,8 +617,14 @@
       <c r="N4" t="s">
         <v>9</v>
       </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -640,8 +664,14 @@
       <c r="N5" t="s">
         <v>9</v>
       </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -678,8 +708,14 @@
       <c r="N6" t="s">
         <v>9</v>
       </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -716,8 +752,14 @@
       <c r="N7" t="s">
         <v>9</v>
       </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -754,8 +796,14 @@
       <c r="N8" t="s">
         <v>9</v>
       </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -792,8 +840,14 @@
       <c r="N9" t="s">
         <v>10</v>
       </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -828,6 +882,12 @@
         <v>9</v>
       </c>
       <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE587C2-6FEE-4722-B287-146C1F0EFD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C0DE1-2588-460C-8D62-6DDD1E0708E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +433,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +482,18 @@
       <c r="P1" s="1">
         <v>45423</v>
       </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1">
+        <v>45441</v>
+      </c>
+      <c r="S1" s="1">
+        <v>45443</v>
+      </c>
+      <c r="T1" s="1">
+        <v>45444</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -529,8 +539,17 @@
       <c r="P2" t="s">
         <v>9</v>
       </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -576,8 +595,17 @@
       <c r="P3" t="s">
         <v>9</v>
       </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -623,8 +651,17 @@
       <c r="P4" t="s">
         <v>9</v>
       </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -670,8 +707,17 @@
       <c r="P5" t="s">
         <v>9</v>
       </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -714,8 +760,17 @@
       <c r="P6" t="s">
         <v>9</v>
       </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -758,8 +813,17 @@
       <c r="P7" t="s">
         <v>9</v>
       </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -802,8 +866,17 @@
       <c r="P8" t="s">
         <v>9</v>
       </c>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -846,8 +919,17 @@
       <c r="P9" t="s">
         <v>10</v>
       </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -888,6 +970,15 @@
         <v>9</v>
       </c>
       <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C0DE1-2588-460C-8D62-6DDD1E0708E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E9ED4-CA98-46B3-9B07-F210DA603DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Dubai</t>
+  </si>
+  <si>
+    <t>Utsav Bhavsar</t>
+  </si>
+  <si>
+    <t>Neel Surani</t>
   </si>
 </sst>
 </file>
@@ -422,18 +428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,35 +478,46 @@
         <v>45402</v>
       </c>
       <c r="K1" s="1">
-        <v>45408</v>
+        <v>45415</v>
       </c>
       <c r="L1" s="1">
-        <v>45409</v>
+        <v>45420</v>
       </c>
       <c r="M1" s="1">
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="N1" s="1">
-        <v>45420</v>
+        <v>45423</v>
       </c>
       <c r="O1" s="1">
-        <v>45422</v>
+        <v>45441</v>
       </c>
       <c r="P1" s="1">
-        <v>45423</v>
-      </c>
-      <c r="Q1" s="1"/>
+        <v>45443</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45444</v>
+      </c>
       <c r="R1" s="1">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="S1" s="1">
-        <v>45443</v>
+        <v>45455</v>
       </c>
       <c r="T1" s="1">
-        <v>45444</v>
+        <v>45457</v>
+      </c>
+      <c r="U1" s="1">
+        <v>45458</v>
+      </c>
+      <c r="V1" s="1">
+        <v>45462</v>
+      </c>
+      <c r="W1" s="1">
+        <v>45464</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +549,10 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -534,13 +561,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
         <v>10</v>
@@ -548,8 +578,17 @@
       <c r="T2" t="s">
         <v>10</v>
       </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,6 +622,9 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" t="s">
         <v>9</v>
       </c>
@@ -590,22 +632,34 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
         <v>9</v>
       </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -639,6 +693,9 @@
       <c r="K4" t="s">
         <v>9</v>
       </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" t="s">
         <v>9</v>
       </c>
@@ -646,22 +703,34 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
         <v>9</v>
       </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T4" t="s">
         <v>9</v>
       </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -695,6 +764,9 @@
       <c r="K5" t="s">
         <v>9</v>
       </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
@@ -702,22 +774,34 @@
         <v>9</v>
       </c>
       <c r="O5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
         <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S5" t="s">
         <v>11</v>
       </c>
       <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -748,6 +832,12 @@
       <c r="J6" t="s">
         <v>9</v>
       </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
@@ -760,17 +850,29 @@
       <c r="P6" t="s">
         <v>9</v>
       </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
       <c r="R6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,6 +903,12 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
       <c r="M7" t="s">
         <v>9</v>
       </c>
@@ -808,22 +916,34 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
         <v>9</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" t="s">
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -854,6 +974,12 @@
       <c r="J8" t="s">
         <v>9</v>
       </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
@@ -861,22 +987,34 @@
         <v>9</v>
       </c>
       <c r="O8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
         <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T8" t="s">
         <v>9</v>
       </c>
+      <c r="U8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -907,6 +1045,12 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
@@ -914,22 +1058,34 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
         <v>10</v>
       </c>
       <c r="R9" t="s">
         <v>9</v>
       </c>
       <c r="S9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -960,6 +1116,12 @@
       <c r="J10" t="s">
         <v>9</v>
       </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
       <c r="M10" t="s">
         <v>9</v>
       </c>
@@ -972,14 +1134,168 @@
       <c r="P10" t="s">
         <v>9</v>
       </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
       <c r="R10" t="s">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T10" t="s">
         <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E9ED4-CA98-46B3-9B07-F210DA603DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE4BBB-E8DC-4658-A052-F16A7F58992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     <col min="19" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +516,11 @@
       <c r="W1" s="1">
         <v>45464</v>
       </c>
+      <c r="X1" s="1">
+        <v>45465</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -587,8 +590,11 @@
       <c r="W2" t="s">
         <v>10</v>
       </c>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -658,8 +664,11 @@
       <c r="W3" t="s">
         <v>9</v>
       </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -729,8 +738,11 @@
       <c r="W4" t="s">
         <v>10</v>
       </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -800,8 +812,11 @@
       <c r="W5" t="s">
         <v>9</v>
       </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="W6" t="s">
         <v>9</v>
       </c>
+      <c r="X6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -942,8 +960,11 @@
       <c r="W7" t="s">
         <v>10</v>
       </c>
+      <c r="X7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1034,11 @@
       <c r="W8" t="s">
         <v>10</v>
       </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1108,11 @@
       <c r="W9" t="s">
         <v>9</v>
       </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1155,8 +1182,11 @@
       <c r="W10" t="s">
         <v>9</v>
       </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="W11" t="s">
         <v>10</v>
       </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1296,6 +1329,9 @@
       </c>
       <c r="W12" t="s">
         <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE4BBB-E8DC-4658-A052-F16A7F58992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14C5B-69EA-4AD4-A2F2-BF86FE4608A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     <col min="19" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +519,11 @@
       <c r="X1" s="1">
         <v>45465</v>
       </c>
+      <c r="Y1" s="1">
+        <v>45472</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -593,8 +596,11 @@
       <c r="X2" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,8 +673,11 @@
       <c r="X3" t="s">
         <v>9</v>
       </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -741,8 +750,11 @@
       <c r="X4" t="s">
         <v>9</v>
       </c>
+      <c r="Y4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -815,8 +827,11 @@
       <c r="X5" t="s">
         <v>9</v>
       </c>
+      <c r="Y5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -889,8 +904,11 @@
       <c r="X6" t="s">
         <v>9</v>
       </c>
+      <c r="Y6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -963,8 +981,11 @@
       <c r="X7" t="s">
         <v>9</v>
       </c>
+      <c r="Y7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1058,11 @@
       <c r="X8" t="s">
         <v>9</v>
       </c>
+      <c r="Y8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1135,11 @@
       <c r="X9" t="s">
         <v>9</v>
       </c>
+      <c r="Y9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1185,8 +1212,11 @@
       <c r="X10" t="s">
         <v>9</v>
       </c>
+      <c r="Y10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1289,11 @@
       <c r="X11" t="s">
         <v>11</v>
       </c>
+      <c r="Y11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1332,6 +1365,9 @@
       </c>
       <c r="X12" t="s">
         <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14C5B-69EA-4AD4-A2F2-BF86FE4608A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62807EA1-759A-45DC-A21B-5CC08F463400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Neel Surani</t>
+  </si>
+  <si>
+    <t>Dhruvi Desai</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +452,7 @@
     <col min="19" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +528,11 @@
       <c r="Y1" s="1">
         <v>45472</v>
       </c>
+      <c r="Z1" s="1">
+        <v>45532</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -599,8 +608,11 @@
       <c r="Y2" t="s">
         <v>10</v>
       </c>
+      <c r="Z2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +688,11 @@
       <c r="Y3" t="s">
         <v>11</v>
       </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -753,8 +768,11 @@
       <c r="Y4" t="s">
         <v>10</v>
       </c>
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -830,8 +848,11 @@
       <c r="Y5" t="s">
         <v>9</v>
       </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -907,8 +928,11 @@
       <c r="Y6" t="s">
         <v>9</v>
       </c>
+      <c r="Z6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -984,8 +1008,11 @@
       <c r="Y7" t="s">
         <v>11</v>
       </c>
+      <c r="Z7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1088,11 @@
       <c r="Y8" t="s">
         <v>10</v>
       </c>
+      <c r="Z8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1138,8 +1168,11 @@
       <c r="Y9" t="s">
         <v>9</v>
       </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1215,8 +1248,11 @@
       <c r="Y10" t="s">
         <v>9</v>
       </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1292,8 +1328,11 @@
       <c r="Y11" t="s">
         <v>10</v>
       </c>
+      <c r="Z11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1368,6 +1407,89 @@
       </c>
       <c r="Y12" t="s">
         <v>10</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\22club2_LJ_4PM\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62807EA1-759A-45DC-A21B-5CC08F463400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA23C07-491E-47B5-AD0A-14B7D506F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Dubai</t>
-  </si>
-  <si>
     <t>Utsav Bhavsar</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Bhavya Patel</t>
   </si>
 </sst>
 </file>
@@ -135,6 +135,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>191940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8213C462-8350-4C50-1FF1-0132C3A2AF48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13304520" y="150120"/>
+            <a:ext cx="1440" cy="25560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8213C462-8350-4C50-1FF1-0132C3A2AF48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13298400" y="144000"/>
+              <a:ext cx="13680" cy="37800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-30T12:01:52.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 70 7555,'0'-15'4194,"0"1"-3281,0 0 239,-3 4 49,3 5 159,0 3-623,3-1-97,-3 1-144,0 0-127,-3-1-321</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,10 +546,12 @@
     <col min="11" max="12" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +630,14 @@
       <c r="Z1" s="1">
         <v>45532</v>
       </c>
+      <c r="AA1" s="1">
+        <v>45534</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>45546</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -611,8 +716,14 @@
       <c r="Z2" t="s">
         <v>10</v>
       </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -691,8 +802,14 @@
       <c r="Z3" t="s">
         <v>11</v>
       </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -771,8 +888,14 @@
       <c r="Z4" t="s">
         <v>9</v>
       </c>
+      <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -851,8 +974,14 @@
       <c r="Z5" t="s">
         <v>11</v>
       </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -931,8 +1060,14 @@
       <c r="Z6" t="s">
         <v>10</v>
       </c>
+      <c r="AA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -958,10 +1093,10 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -1011,8 +1146,14 @@
       <c r="Z7" t="s">
         <v>11</v>
       </c>
+      <c r="AA7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1232,14 @@
       <c r="Z8" t="s">
         <v>11</v>
       </c>
+      <c r="AA8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1118,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1169,10 +1316,16 @@
         <v>9</v>
       </c>
       <c r="Z9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1251,244 +1404,354 @@
       <c r="Z10" t="s">
         <v>11</v>
       </c>
+      <c r="AA10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" t="s">
-        <v>11</v>
-      </c>
-      <c r="W11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1497,5 +1760,6 @@
     <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>